--- a/Documents/Testing/TestDocuments/Traceability-Matrix.xlsx
+++ b/Documents/Testing/TestDocuments/Traceability-Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/ziad_diab_senecapolytechnic_ca/Documents/2251/SFT221/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{C9DDA932-F8DA-4456-8B89-1F05C6D5FEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DD76E2-A66B-4A63-B28B-78ED3E843D7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB5705-BAD2-4CC1-A646-CFE3F1C14EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20985" yWindow="-3450" windowWidth="24645" windowHeight="13800" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -160,7 +160,13 @@
     <t>R003 = get the shortest path</t>
   </si>
   <si>
-    <t>…</t>
+    <t>R005 = Check truck Capacity</t>
+  </si>
+  <si>
+    <t>R006 = Validate Destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R004 = Select closest truck </t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,12 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,43 +628,43 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -687,8 +690,8 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -697,448 +700,426 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="O6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="O7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="O8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="O9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G28" s="4"/>
     </row>
   </sheetData>

--- a/Documents/Testing/TestDocuments/Traceability-Matrix.xlsx
+++ b/Documents/Testing/TestDocuments/Traceability-Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\Desktop\Seneca\SFT\Milestone\summer25-sft221-nee-6\Documents\Testing\TestDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23560D0F-50E4-4847-BEF0-D004F25D2C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2F73B-F226-CF42-AFE4-060DFBFB0AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16920" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Business Requirements</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>Overvolume</t>
+  </si>
+  <si>
+    <t>AllEmpty_Trucks_BlueChosen</t>
+  </si>
+  <si>
+    <t>OverWeight_ChooseYellow</t>
+  </si>
+  <si>
+    <t>VolumeCheck_ChooseBlue</t>
+  </si>
+  <si>
+    <t>OverVolume_ChooseYellow</t>
+  </si>
+  <si>
+    <t>ShortestRoute_Blue</t>
+  </si>
+  <si>
+    <t>DiversionNeeded_ChooseYellow</t>
   </si>
 </sst>
 </file>
@@ -505,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,31 +532,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,14 +548,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,24 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +576,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,44 +929,44 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.109375" style="3"/>
-    <col min="10" max="10" width="8.88671875" style="3"/>
-    <col min="12" max="12" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="8.83203125" style="3"/>
+    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="L1" s="8" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="L1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="10"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -974,297 +988,378 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="L3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="L6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="L6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="L9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L19" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
